--- a/files/separadas/repeat_p37.xlsx
+++ b/files/separadas/repeat_p37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="201">
   <si>
     <t>p37_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://metro.analitica.com.co</t>
@@ -1003,13 +991,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,31 +1043,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1088,39 +1064,27 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1129,39 +1093,27 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1170,39 +1122,27 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J4" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1211,39 +1151,27 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J5" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1252,39 +1180,27 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J6" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1293,39 +1209,27 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J7" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1334,39 +1238,27 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J8" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -1375,39 +1267,27 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J9" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -1416,39 +1296,27 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J10" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1457,39 +1325,27 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>204</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1498,39 +1354,27 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>204</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -1539,39 +1383,27 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J13" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M13" t="s">
-        <v>203</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1580,39 +1412,27 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J14" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M14" t="s">
-        <v>204</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -1621,39 +1441,27 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J15" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M15" t="s">
-        <v>204</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1662,39 +1470,27 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J16" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M16" t="s">
-        <v>204</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -1703,39 +1499,27 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J17" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M17" t="s">
-        <v>203</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -1744,39 +1528,27 @@
         <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J18" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>203</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -1785,39 +1557,27 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J19" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M19" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -1826,39 +1586,27 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M20" t="s">
-        <v>203</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G21">
         <v>21</v>
@@ -1867,39 +1615,27 @@
         <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M21" t="s">
-        <v>203</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1908,39 +1644,27 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>203</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1949,39 +1673,27 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>203</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1990,39 +1702,27 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>203</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -2031,39 +1731,27 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>203</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -2072,39 +1760,27 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>203</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G27">
         <v>24</v>
@@ -2113,39 +1789,27 @@
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J27" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M27" t="s">
-        <v>204</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G28">
         <v>24</v>
@@ -2154,39 +1818,27 @@
         <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J28" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M28" t="s">
-        <v>204</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -2195,39 +1847,27 @@
         <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J29" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M29" t="s">
-        <v>203</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -2236,39 +1876,27 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>203</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G31">
         <v>27</v>
@@ -2277,39 +1905,27 @@
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J31" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M31" t="s">
-        <v>203</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G32">
         <v>28</v>
@@ -2318,39 +1934,27 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J32" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M32" t="s">
-        <v>203</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G33">
         <v>29</v>
@@ -2359,39 +1963,27 @@
         <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J33" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M33" t="s">
-        <v>203</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -2400,39 +1992,27 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>203</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -2441,39 +2021,27 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>203</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G36">
         <v>32</v>
@@ -2482,39 +2050,27 @@
         <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J36" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M36" t="s">
-        <v>203</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2523,39 +2079,27 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>203</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -2564,39 +2108,27 @@
         <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J38" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M38" t="s">
-        <v>203</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G39">
         <v>32</v>
@@ -2605,39 +2137,27 @@
         <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J39" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M39" t="s">
-        <v>203</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G40">
         <v>33</v>
@@ -2646,39 +2166,27 @@
         <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J40" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M40" t="s">
-        <v>203</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G41">
         <v>34</v>
@@ -2687,39 +2195,27 @@
         <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J41" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M41" t="s">
-        <v>203</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G42">
         <v>37</v>
@@ -2728,39 +2224,27 @@
         <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J42" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M42" t="s">
-        <v>203</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G43">
         <v>37</v>
@@ -2769,39 +2253,27 @@
         <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J43" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M43" t="s">
-        <v>203</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G44">
         <v>37</v>
@@ -2810,39 +2282,27 @@
         <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J44" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M44" t="s">
-        <v>203</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G45">
         <v>38</v>
@@ -2851,39 +2311,27 @@
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J45" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M45" t="s">
-        <v>203</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G46">
         <v>39</v>
@@ -2892,39 +2340,27 @@
         <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J46" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M46" t="s">
-        <v>203</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G47">
         <v>41</v>
@@ -2933,39 +2369,27 @@
         <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J47" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M47" t="s">
-        <v>203</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -2974,39 +2398,27 @@
         <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J48" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M48" t="s">
-        <v>203</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G49">
         <v>44</v>
@@ -3015,39 +2427,27 @@
         <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J49" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M49" t="s">
-        <v>203</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G50">
         <v>45</v>
@@ -3056,39 +2456,27 @@
         <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M50" t="s">
-        <v>204</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G51">
         <v>46</v>
@@ -3097,39 +2485,27 @@
         <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J51" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M51" t="s">
-        <v>203</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G52">
         <v>49</v>
@@ -3138,39 +2514,27 @@
         <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J52" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M52" t="s">
-        <v>203</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -3179,39 +2543,27 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>203</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G54">
         <v>50</v>
@@ -3220,39 +2572,27 @@
         <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M54" t="s">
-        <v>203</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G55">
         <v>50</v>
@@ -3261,39 +2601,27 @@
         <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J55" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M55" t="s">
-        <v>203</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G56">
         <v>51</v>
@@ -3302,39 +2630,27 @@
         <v>95</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J56" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M56" t="s">
-        <v>203</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G57">
         <v>54</v>
@@ -3343,39 +2659,27 @@
         <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J57" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M57" t="s">
-        <v>203</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G58">
         <v>55</v>
@@ -3384,39 +2688,27 @@
         <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J58" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M58" t="s">
-        <v>203</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G59">
         <v>56</v>
@@ -3425,39 +2717,27 @@
         <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J59" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M59" t="s">
-        <v>203</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G60">
         <v>57</v>
@@ -3466,39 +2746,27 @@
         <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J60" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M60" t="s">
-        <v>203</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G61">
         <v>58</v>
@@ -3507,39 +2775,27 @@
         <v>103</v>
       </c>
       <c r="I61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J61" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M61" t="s">
-        <v>203</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G62">
         <v>58</v>
@@ -3548,39 +2804,27 @@
         <v>103</v>
       </c>
       <c r="I62" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J62" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M62" t="s">
-        <v>203</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G63">
         <v>58</v>
@@ -3589,39 +2833,27 @@
         <v>103</v>
       </c>
       <c r="I63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J63" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M63" t="s">
-        <v>203</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G64">
         <v>59</v>
@@ -3630,39 +2862,27 @@
         <v>104</v>
       </c>
       <c r="I64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J64" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M64" t="s">
-        <v>203</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G65">
         <v>60</v>
@@ -3671,39 +2891,27 @@
         <v>105</v>
       </c>
       <c r="I65" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J65" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M65" t="s">
-        <v>203</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -3712,39 +2920,27 @@
         <v>106</v>
       </c>
       <c r="I66" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J66" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M66" t="s">
-        <v>203</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G67">
         <v>65</v>
@@ -3753,39 +2949,27 @@
         <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J67" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M67" t="s">
-        <v>203</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G68">
         <v>65</v>
@@ -3794,39 +2978,27 @@
         <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J68" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M68" t="s">
-        <v>203</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G69">
         <v>66</v>
@@ -3835,39 +3007,27 @@
         <v>113</v>
       </c>
       <c r="I69" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J69" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M69" t="s">
-        <v>203</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G70">
         <v>68</v>
@@ -3876,39 +3036,27 @@
         <v>115</v>
       </c>
       <c r="I70" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J70" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M70" t="s">
-        <v>204</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G71">
         <v>69</v>
@@ -3917,39 +3065,27 @@
         <v>117</v>
       </c>
       <c r="I71" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J71" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M71" t="s">
-        <v>203</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G72">
         <v>71</v>
@@ -3958,39 +3094,27 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J72" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>203</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G73">
         <v>71</v>
@@ -3999,39 +3123,27 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J73" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>203</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G74">
         <v>71</v>
@@ -4040,39 +3152,27 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J74" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>203</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G75">
         <v>71</v>
@@ -4081,39 +3181,27 @@
         <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J75" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M75" t="s">
-        <v>203</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G76">
         <v>71</v>
@@ -4122,39 +3210,27 @@
         <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J76" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M76" t="s">
-        <v>203</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G77">
         <v>71</v>
@@ -4163,39 +3239,27 @@
         <v>119</v>
       </c>
       <c r="I77" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J77" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M77" t="s">
-        <v>203</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G78">
         <v>71</v>
@@ -4204,25 +3268,13 @@
         <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J78" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M78" t="s">
-        <v>203</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p37.xlsx
+++ b/files/separadas/repeat_p37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
   <si>
     <t>p37_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://metro.analitica.com.co</t>
@@ -991,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,19 +1046,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1064,27 +1070,30 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1093,27 +1102,30 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1122,27 +1134,30 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J4" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1151,27 +1166,30 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J5" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1180,27 +1198,30 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J6" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1209,27 +1230,30 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J7" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1238,27 +1262,30 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J8" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -1267,27 +1294,30 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J9" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -1296,27 +1326,30 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J10" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>201</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1325,27 +1358,30 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>201</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1354,27 +1390,30 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>201</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -1383,27 +1422,30 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J13" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>200</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1412,27 +1454,30 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J14" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>201</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -1441,27 +1486,30 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J15" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>201</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1470,27 +1518,30 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J16" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>201</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -1499,27 +1550,30 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J17" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -1528,27 +1582,30 @@
         <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J18" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -1557,27 +1614,30 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J19" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -1586,27 +1646,30 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21">
         <v>21</v>
@@ -1615,27 +1678,30 @@
         <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1644,27 +1710,30 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1673,27 +1742,30 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1702,27 +1774,30 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1731,27 +1806,30 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1760,27 +1838,30 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G27">
         <v>24</v>
@@ -1789,27 +1870,30 @@
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J27" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>201</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G28">
         <v>24</v>
@@ -1818,27 +1902,30 @@
         <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J28" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>201</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -1847,27 +1934,30 @@
         <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J29" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -1876,27 +1966,30 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G31">
         <v>27</v>
@@ -1905,27 +1998,30 @@
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J31" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32">
         <v>28</v>
@@ -1934,27 +2030,30 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J32" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G33">
         <v>29</v>
@@ -1963,27 +2062,30 @@
         <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J33" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -1992,27 +2094,30 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -2021,27 +2126,30 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36">
         <v>32</v>
@@ -2050,27 +2158,30 @@
         <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J36" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2079,27 +2190,30 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -2108,27 +2222,30 @@
         <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J38" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G39">
         <v>32</v>
@@ -2137,27 +2254,30 @@
         <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J39" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G40">
         <v>33</v>
@@ -2166,27 +2286,30 @@
         <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J40" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G41">
         <v>34</v>
@@ -2195,27 +2318,30 @@
         <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J41" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G42">
         <v>37</v>
@@ -2224,27 +2350,30 @@
         <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J42" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G43">
         <v>37</v>
@@ -2253,27 +2382,30 @@
         <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J43" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G44">
         <v>37</v>
@@ -2282,27 +2414,30 @@
         <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J44" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M44" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G45">
         <v>38</v>
@@ -2311,27 +2446,30 @@
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J45" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G46">
         <v>39</v>
@@ -2340,27 +2478,30 @@
         <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J46" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G47">
         <v>41</v>
@@ -2369,27 +2510,30 @@
         <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J47" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -2398,27 +2542,30 @@
         <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J48" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G49">
         <v>44</v>
@@ -2427,27 +2574,30 @@
         <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J49" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G50">
         <v>45</v>
@@ -2456,27 +2606,30 @@
         <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>201</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51">
         <v>46</v>
@@ -2485,27 +2638,30 @@
         <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J51" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G52">
         <v>49</v>
@@ -2514,27 +2670,30 @@
         <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J52" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -2543,27 +2702,30 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G54">
         <v>50</v>
@@ -2572,27 +2734,30 @@
         <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G55">
         <v>50</v>
@@ -2601,27 +2766,30 @@
         <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J55" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G56">
         <v>51</v>
@@ -2630,27 +2798,30 @@
         <v>95</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J56" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G57">
         <v>54</v>
@@ -2659,27 +2830,30 @@
         <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J57" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M57" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G58">
         <v>55</v>
@@ -2688,27 +2862,30 @@
         <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J58" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G59">
         <v>56</v>
@@ -2717,27 +2894,30 @@
         <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J59" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G60">
         <v>57</v>
@@ -2746,27 +2926,30 @@
         <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J60" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G61">
         <v>58</v>
@@ -2775,27 +2958,30 @@
         <v>103</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J61" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G62">
         <v>58</v>
@@ -2804,27 +2990,30 @@
         <v>103</v>
       </c>
       <c r="I62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J62" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G63">
         <v>58</v>
@@ -2833,27 +3022,30 @@
         <v>103</v>
       </c>
       <c r="I63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J63" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G64">
         <v>59</v>
@@ -2862,27 +3054,30 @@
         <v>104</v>
       </c>
       <c r="I64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J64" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M64" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G65">
         <v>60</v>
@@ -2891,27 +3086,30 @@
         <v>105</v>
       </c>
       <c r="I65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J65" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -2920,27 +3118,30 @@
         <v>106</v>
       </c>
       <c r="I66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J66" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M66" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G67">
         <v>65</v>
@@ -2949,27 +3150,30 @@
         <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J67" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G68">
         <v>65</v>
@@ -2978,27 +3182,30 @@
         <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J68" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M68" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G69">
         <v>66</v>
@@ -3007,27 +3214,30 @@
         <v>113</v>
       </c>
       <c r="I69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J69" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M69" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G70">
         <v>68</v>
@@ -3036,27 +3246,30 @@
         <v>115</v>
       </c>
       <c r="I70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J70" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M70" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>201</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G71">
         <v>69</v>
@@ -3065,27 +3278,30 @@
         <v>117</v>
       </c>
       <c r="I71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J71" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G72">
         <v>71</v>
@@ -3094,27 +3310,30 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J72" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G73">
         <v>71</v>
@@ -3123,27 +3342,30 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J73" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G74">
         <v>71</v>
@@ -3152,27 +3374,30 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J74" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G75">
         <v>71</v>
@@ -3181,27 +3406,30 @@
         <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J75" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M75" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G76">
         <v>71</v>
@@ -3210,27 +3438,30 @@
         <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J76" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M76" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G77">
         <v>71</v>
@@ -3239,27 +3470,30 @@
         <v>119</v>
       </c>
       <c r="I77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J77" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G78">
         <v>71</v>
@@ -3268,13 +3502,16 @@
         <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J78" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M78" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p37.xlsx
+++ b/files/separadas/repeat_p37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="203">
   <si>
     <t>p37_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -994,13 +997,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,19 +1052,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1070,30 +1076,33 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1102,30 +1111,33 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1134,30 +1146,33 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J4" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1166,30 +1181,33 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J5" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1198,30 +1216,33 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J6" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1230,30 +1251,33 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J7" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1262,30 +1286,33 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J8" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -1294,30 +1321,33 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J9" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -1326,30 +1356,33 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J10" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1358,30 +1391,33 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1390,30 +1426,33 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -1422,30 +1461,33 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J13" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1454,30 +1496,33 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J14" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -1486,30 +1531,33 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J15" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1518,30 +1566,33 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J16" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -1550,30 +1601,33 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J17" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -1582,30 +1636,33 @@
         <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J18" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -1614,30 +1671,33 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J19" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -1646,30 +1706,33 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G21">
         <v>21</v>
@@ -1678,30 +1741,33 @@
         <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1710,30 +1776,33 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1742,30 +1811,33 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1774,30 +1846,33 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1806,30 +1881,33 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1838,30 +1916,33 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G27">
         <v>24</v>
@@ -1870,30 +1951,33 @@
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J27" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28">
         <v>24</v>
@@ -1902,30 +1986,33 @@
         <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J28" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -1934,30 +2021,33 @@
         <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J29" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -1966,30 +2056,33 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G31">
         <v>27</v>
@@ -1998,30 +2091,33 @@
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J31" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G32">
         <v>28</v>
@@ -2030,30 +2126,33 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J32" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G33">
         <v>29</v>
@@ -2062,30 +2161,33 @@
         <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J33" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -2094,30 +2196,33 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -2126,30 +2231,33 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G36">
         <v>32</v>
@@ -2158,30 +2266,33 @@
         <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J36" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2190,30 +2301,33 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -2222,30 +2336,33 @@
         <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J38" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39">
         <v>32</v>
@@ -2254,30 +2371,33 @@
         <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J39" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40">
         <v>33</v>
@@ -2286,30 +2406,33 @@
         <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J40" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41">
         <v>34</v>
@@ -2318,30 +2441,33 @@
         <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J41" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42">
         <v>37</v>
@@ -2350,30 +2476,33 @@
         <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J42" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43">
         <v>37</v>
@@ -2382,30 +2511,33 @@
         <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J43" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G44">
         <v>37</v>
@@ -2414,30 +2546,33 @@
         <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J44" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G45">
         <v>38</v>
@@ -2446,30 +2581,33 @@
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J45" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G46">
         <v>39</v>
@@ -2478,30 +2616,33 @@
         <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J46" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G47">
         <v>41</v>
@@ -2510,30 +2651,33 @@
         <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J47" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -2542,30 +2686,33 @@
         <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J48" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G49">
         <v>44</v>
@@ -2574,30 +2721,33 @@
         <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J49" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G50">
         <v>45</v>
@@ -2606,30 +2756,33 @@
         <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G51">
         <v>46</v>
@@ -2638,30 +2791,33 @@
         <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J51" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G52">
         <v>49</v>
@@ -2670,30 +2826,33 @@
         <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J52" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -2702,30 +2861,33 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G54">
         <v>50</v>
@@ -2734,30 +2896,33 @@
         <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G55">
         <v>50</v>
@@ -2766,30 +2931,33 @@
         <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J55" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G56">
         <v>51</v>
@@ -2798,30 +2966,33 @@
         <v>95</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J56" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G57">
         <v>54</v>
@@ -2830,30 +3001,33 @@
         <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J57" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G58">
         <v>55</v>
@@ -2862,30 +3036,33 @@
         <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J58" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G59">
         <v>56</v>
@@ -2894,30 +3071,33 @@
         <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J59" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G60">
         <v>57</v>
@@ -2926,30 +3106,33 @@
         <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J60" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G61">
         <v>58</v>
@@ -2958,30 +3141,33 @@
         <v>103</v>
       </c>
       <c r="I61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J61" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G62">
         <v>58</v>
@@ -2990,30 +3176,33 @@
         <v>103</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J62" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G63">
         <v>58</v>
@@ -3022,30 +3211,33 @@
         <v>103</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J63" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G64">
         <v>59</v>
@@ -3054,30 +3246,33 @@
         <v>104</v>
       </c>
       <c r="I64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J64" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G65">
         <v>60</v>
@@ -3086,30 +3281,33 @@
         <v>105</v>
       </c>
       <c r="I65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J65" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -3118,30 +3316,33 @@
         <v>106</v>
       </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J66" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G67">
         <v>64</v>
@@ -3150,30 +3351,33 @@
         <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J67" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G68">
         <v>64</v>
@@ -3182,30 +3386,33 @@
         <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J68" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G69">
         <v>65</v>
@@ -3214,30 +3421,33 @@
         <v>113</v>
       </c>
       <c r="I69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J69" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G70">
         <v>67</v>
@@ -3246,30 +3456,33 @@
         <v>115</v>
       </c>
       <c r="I70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J70" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G71">
         <v>68</v>
@@ -3278,30 +3491,33 @@
         <v>117</v>
       </c>
       <c r="I71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J71" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G72">
         <v>70</v>
@@ -3310,30 +3526,33 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J72" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G73">
         <v>70</v>
@@ -3342,30 +3561,33 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J73" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G74">
         <v>70</v>
@@ -3374,30 +3596,33 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J74" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G75">
         <v>70</v>
@@ -3406,30 +3631,33 @@
         <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J75" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G76">
         <v>70</v>
@@ -3438,30 +3666,33 @@
         <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J76" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G77">
         <v>70</v>
@@ -3470,30 +3701,33 @@
         <v>119</v>
       </c>
       <c r="I77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J77" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G78">
         <v>70</v>
@@ -3502,15 +3736,18 @@
         <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J78" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p37.xlsx
+++ b/files/separadas/repeat_p37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="204">
   <si>
     <t>p37_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -997,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,19 +1058,22 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1076,13 +1082,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1090,19 +1096,22 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1111,13 +1120,13 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1125,19 +1134,22 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1146,13 +1158,13 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J4" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1160,19 +1172,22 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1181,13 +1196,13 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J5" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1195,19 +1210,22 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1216,13 +1234,13 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J6" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1230,19 +1248,22 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1251,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J7" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1265,19 +1286,22 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1286,13 +1310,13 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J8" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1300,19 +1324,22 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -1321,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J9" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1335,19 +1362,22 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -1356,13 +1386,13 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J10" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1370,19 +1400,22 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1391,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1405,19 +1438,22 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1426,13 +1462,13 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1440,19 +1476,22 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -1461,13 +1500,13 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1475,19 +1514,22 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1496,13 +1538,13 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J14" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1510,19 +1552,22 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -1531,13 +1576,13 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J15" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1545,19 +1590,22 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1566,13 +1614,13 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J16" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1580,19 +1628,22 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -1601,13 +1652,13 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J17" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1615,19 +1666,22 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -1636,13 +1690,13 @@
         <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J18" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1650,19 +1704,22 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -1671,13 +1728,13 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J19" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1685,19 +1742,22 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -1706,13 +1766,13 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1720,19 +1780,22 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G21">
         <v>21</v>
@@ -1741,13 +1804,13 @@
         <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1755,19 +1818,22 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1776,13 +1842,13 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1790,19 +1856,22 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1811,13 +1880,13 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1825,19 +1894,22 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1846,13 +1918,13 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1860,19 +1932,22 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1881,13 +1956,13 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1895,19 +1970,22 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1916,13 +1994,13 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1930,19 +2008,22 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G27">
         <v>24</v>
@@ -1951,13 +2032,13 @@
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J27" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1965,19 +2046,22 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G28">
         <v>24</v>
@@ -1986,13 +2070,13 @@
         <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J28" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2000,19 +2084,22 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -2021,13 +2108,13 @@
         <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J29" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2035,19 +2122,22 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -2056,13 +2146,13 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J30" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2070,19 +2160,22 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G31">
         <v>27</v>
@@ -2091,13 +2184,13 @@
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J31" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2105,19 +2198,22 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G32">
         <v>28</v>
@@ -2126,13 +2222,13 @@
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J32" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2140,19 +2236,22 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G33">
         <v>29</v>
@@ -2161,13 +2260,13 @@
         <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J33" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2175,19 +2274,22 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G34">
         <v>30</v>
@@ -2196,13 +2298,13 @@
         <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J34" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2210,19 +2312,22 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -2231,13 +2336,13 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J35" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2245,19 +2350,22 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G36">
         <v>32</v>
@@ -2266,13 +2374,13 @@
         <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J36" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2280,19 +2388,22 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G37">
         <v>32</v>
@@ -2301,13 +2412,13 @@
         <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J37" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2315,19 +2426,22 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -2336,13 +2450,13 @@
         <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J38" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2350,19 +2464,22 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G39">
         <v>32</v>
@@ -2371,13 +2488,13 @@
         <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J39" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2385,19 +2502,22 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G40">
         <v>33</v>
@@ -2406,13 +2526,13 @@
         <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J40" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2420,19 +2540,22 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G41">
         <v>34</v>
@@ -2441,13 +2564,13 @@
         <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J41" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2455,19 +2578,22 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G42">
         <v>37</v>
@@ -2476,13 +2602,13 @@
         <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J42" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2490,19 +2616,22 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43">
         <v>37</v>
@@ -2511,13 +2640,13 @@
         <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J43" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2525,19 +2654,22 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G44">
         <v>37</v>
@@ -2546,13 +2678,13 @@
         <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J44" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2560,19 +2692,22 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G45">
         <v>38</v>
@@ -2581,13 +2716,13 @@
         <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J45" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2595,19 +2730,22 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G46">
         <v>39</v>
@@ -2616,13 +2754,13 @@
         <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J46" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2630,19 +2768,22 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G47">
         <v>41</v>
@@ -2651,13 +2792,13 @@
         <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J47" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2665,19 +2806,22 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -2686,13 +2830,13 @@
         <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J48" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -2700,19 +2844,22 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G49">
         <v>44</v>
@@ -2721,13 +2868,13 @@
         <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J49" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -2735,19 +2882,22 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G50">
         <v>45</v>
@@ -2756,13 +2906,13 @@
         <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J50" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -2770,19 +2920,22 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G51">
         <v>46</v>
@@ -2791,13 +2944,13 @@
         <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J51" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -2805,19 +2958,22 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52">
         <v>49</v>
@@ -2826,13 +2982,13 @@
         <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J52" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -2840,19 +2996,22 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -2861,13 +3020,13 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J53" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -2875,19 +3034,22 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G54">
         <v>50</v>
@@ -2896,13 +3058,13 @@
         <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J54" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -2910,19 +3072,22 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G55">
         <v>50</v>
@@ -2931,13 +3096,13 @@
         <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J55" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2945,19 +3110,22 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G56">
         <v>51</v>
@@ -2966,13 +3134,13 @@
         <v>95</v>
       </c>
       <c r="I56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J56" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -2980,19 +3148,22 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G57">
         <v>54</v>
@@ -3001,13 +3172,13 @@
         <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J57" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3015,19 +3186,22 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G58">
         <v>55</v>
@@ -3036,13 +3210,13 @@
         <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J58" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3050,19 +3224,22 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G59">
         <v>56</v>
@@ -3071,13 +3248,13 @@
         <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J59" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3085,19 +3262,22 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G60">
         <v>57</v>
@@ -3106,13 +3286,13 @@
         <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J60" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3120,19 +3300,22 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G61">
         <v>58</v>
@@ -3141,13 +3324,13 @@
         <v>103</v>
       </c>
       <c r="I61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J61" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3155,19 +3338,22 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G62">
         <v>58</v>
@@ -3176,13 +3362,13 @@
         <v>103</v>
       </c>
       <c r="I62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J62" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3190,19 +3376,22 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G63">
         <v>58</v>
@@ -3211,13 +3400,13 @@
         <v>103</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J63" s="3">
         <v>45045.07196759259</v>
       </c>
       <c r="M63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3225,19 +3414,22 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G64">
         <v>59</v>
@@ -3246,13 +3438,13 @@
         <v>104</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J64" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3260,19 +3452,22 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65">
         <v>60</v>
@@ -3281,13 +3476,13 @@
         <v>105</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J65" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3295,19 +3490,22 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G66">
         <v>61</v>
@@ -3316,13 +3514,13 @@
         <v>106</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J66" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3330,19 +3528,22 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G67">
         <v>64</v>
@@ -3351,13 +3552,13 @@
         <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J67" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3365,19 +3566,22 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G68">
         <v>64</v>
@@ -3386,13 +3590,13 @@
         <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J68" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3400,19 +3604,22 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G69">
         <v>65</v>
@@ -3421,13 +3628,13 @@
         <v>113</v>
       </c>
       <c r="I69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J69" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -3435,19 +3642,22 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G70">
         <v>67</v>
@@ -3456,13 +3666,13 @@
         <v>115</v>
       </c>
       <c r="I70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J70" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -3470,19 +3680,22 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G71">
         <v>68</v>
@@ -3491,13 +3704,13 @@
         <v>117</v>
       </c>
       <c r="I71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J71" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -3505,19 +3718,22 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G72">
         <v>70</v>
@@ -3526,13 +3742,13 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J72" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -3540,19 +3756,22 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G73">
         <v>70</v>
@@ -3561,13 +3780,13 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J73" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -3575,19 +3794,22 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G74">
         <v>70</v>
@@ -3596,13 +3818,13 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J74" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -3610,19 +3832,22 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G75">
         <v>70</v>
@@ -3631,13 +3856,13 @@
         <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J75" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -3645,19 +3870,22 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G76">
         <v>70</v>
@@ -3666,13 +3894,13 @@
         <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J76" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -3680,19 +3908,22 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G77">
         <v>70</v>
@@ -3701,13 +3932,13 @@
         <v>119</v>
       </c>
       <c r="I77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J77" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -3715,19 +3946,22 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G78">
         <v>70</v>
@@ -3736,18 +3970,21 @@
         <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J78" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p37.xlsx
+++ b/files/separadas/repeat_p37.xlsx
@@ -1600,13 +1600,13 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">

--- a/files/separadas/repeat_p37.xlsx
+++ b/files/separadas/repeat_p37.xlsx
@@ -628,13 +628,13 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">

--- a/files/separadas/repeat_p37.xlsx
+++ b/files/separadas/repeat_p37.xlsx
@@ -660,7 +660,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -756,7 +756,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -804,7 +804,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -3540,7 +3540,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65">
@@ -3636,7 +3636,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
@@ -3876,7 +3876,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
